--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H2">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N2">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O2">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P2">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q2">
-        <v>33.7438180159651</v>
+        <v>7.96902797595911</v>
       </c>
       <c r="R2">
-        <v>33.7438180159651</v>
+        <v>71.721251783632</v>
       </c>
       <c r="S2">
-        <v>0.5636784683613345</v>
+        <v>0.1006129735801037</v>
       </c>
       <c r="T2">
-        <v>0.5636784683613345</v>
+        <v>0.1006129735801038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H3">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N3">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P3">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q3">
-        <v>3.61681238674414</v>
+        <v>0.9106673173617778</v>
       </c>
       <c r="R3">
-        <v>3.61681238674414</v>
+        <v>8.196005856255999</v>
       </c>
       <c r="S3">
-        <v>0.06041756346438529</v>
+        <v>0.01149763145748738</v>
       </c>
       <c r="T3">
-        <v>0.06041756346438529</v>
+        <v>0.01149763145748738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H4">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N4">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P4">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q4">
-        <v>1.117847605087206</v>
+        <v>0.3120796985342222</v>
       </c>
       <c r="R4">
-        <v>1.117847605087206</v>
+        <v>2.808717286808</v>
       </c>
       <c r="S4">
-        <v>0.01867324632911491</v>
+        <v>0.003940162659515745</v>
       </c>
       <c r="T4">
-        <v>0.01867324632911491</v>
+        <v>0.003940162659515746</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H5">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I5">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J5">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N5">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P5">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q5">
-        <v>0.9720554636142928</v>
+        <v>0.2640996203742222</v>
       </c>
       <c r="R5">
-        <v>0.9720554636142928</v>
+        <v>2.376896583368</v>
       </c>
       <c r="S5">
-        <v>0.01623784050261096</v>
+        <v>0.003334390117262575</v>
       </c>
       <c r="T5">
-        <v>0.01623784050261096</v>
+        <v>0.003334390117262576</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H6">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I6">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J6">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.019429305673169</v>
+        <v>9.052748666666666</v>
       </c>
       <c r="N6">
-        <v>8.019429305673169</v>
+        <v>27.158246</v>
       </c>
       <c r="O6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="P6">
-        <v>0.2695773159048267</v>
+        <v>0.2879106076086415</v>
       </c>
       <c r="Q6">
-        <v>14.56002004840626</v>
+        <v>3.823180957569777</v>
       </c>
       <c r="R6">
-        <v>14.56002004840626</v>
+        <v>34.40862861812799</v>
       </c>
       <c r="S6">
-        <v>0.2432199520609354</v>
+        <v>0.04826957639455742</v>
       </c>
       <c r="T6">
-        <v>0.2432199520609354</v>
+        <v>0.04826957639455743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H7">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.5855625323918</v>
+        <v>18.86952466666667</v>
       </c>
       <c r="N7">
-        <v>18.5855625323918</v>
+        <v>56.608574</v>
       </c>
       <c r="O7">
-        <v>0.6247634178306313</v>
+        <v>0.600120086407596</v>
       </c>
       <c r="P7">
-        <v>0.6247634178306313</v>
+        <v>0.6001200864075961</v>
       </c>
       <c r="Q7">
-        <v>3.656764510446161</v>
+        <v>35.38010086649622</v>
       </c>
       <c r="R7">
-        <v>3.656764510446161</v>
+        <v>318.420907798466</v>
       </c>
       <c r="S7">
-        <v>0.06108494946929684</v>
+        <v>0.4466915117478631</v>
       </c>
       <c r="T7">
-        <v>0.06108494946929684</v>
+        <v>0.4466915117478633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H8">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J8">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.99208319431899</v>
+        <v>2.156330666666667</v>
       </c>
       <c r="N8">
-        <v>1.99208319431899</v>
+        <v>6.468992</v>
       </c>
       <c r="O8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="P8">
-        <v>0.0669649198358446</v>
+        <v>0.0685792233171259</v>
       </c>
       <c r="Q8">
-        <v>0.3919482724370594</v>
+        <v>4.043090530147556</v>
       </c>
       <c r="R8">
-        <v>0.3919482724370594</v>
+        <v>36.387814771328</v>
       </c>
       <c r="S8">
-        <v>0.006547356371459314</v>
+        <v>0.05104604500309146</v>
       </c>
       <c r="T8">
-        <v>0.006547356371459314</v>
+        <v>0.05104604500309146</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H9">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J9">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.615692822792106</v>
+        <v>0.7389603333333333</v>
       </c>
       <c r="N9">
-        <v>0.615692822792106</v>
+        <v>2.216881</v>
       </c>
       <c r="O9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="P9">
-        <v>0.02069683667798473</v>
+        <v>0.02350164865971288</v>
       </c>
       <c r="Q9">
-        <v>0.1211393876186781</v>
+        <v>1.385540525875445</v>
       </c>
       <c r="R9">
-        <v>0.1211393876186781</v>
+        <v>12.469864732879</v>
       </c>
       <c r="S9">
-        <v>0.002023590348869817</v>
+        <v>0.01749314379929645</v>
       </c>
       <c r="T9">
-        <v>0.002023590348869817</v>
+        <v>0.01749314379929646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H10">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I10">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J10">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.535392811667279</v>
+        <v>0.6253503333333333</v>
       </c>
       <c r="N10">
-        <v>0.535392811667279</v>
+        <v>1.876051</v>
       </c>
       <c r="O10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="P10">
-        <v>0.01799750975071263</v>
+        <v>0.0198884340069237</v>
       </c>
       <c r="Q10">
-        <v>0.1053401224440065</v>
+        <v>1.172523328545445</v>
       </c>
       <c r="R10">
-        <v>0.1053401224440065</v>
+        <v>10.552709956909</v>
       </c>
       <c r="S10">
-        <v>0.001759669248101673</v>
+        <v>0.01480369488385435</v>
       </c>
       <c r="T10">
-        <v>0.001759669248101673</v>
+        <v>0.01480369488385435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.624959</v>
+      </c>
+      <c r="I11">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J11">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N11">
+        <v>27.158246</v>
+      </c>
+      <c r="O11">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P11">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q11">
+        <v>16.97378002910155</v>
+      </c>
+      <c r="R11">
+        <v>152.764020261914</v>
+      </c>
+      <c r="S11">
+        <v>0.2143024829093974</v>
+      </c>
+      <c r="T11">
+        <v>0.2143024829093974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.66508</v>
+      </c>
+      <c r="I12">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J12">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.86952466666667</v>
+      </c>
+      <c r="N12">
+        <v>56.608574</v>
+      </c>
+      <c r="O12">
+        <v>0.600120086407596</v>
+      </c>
+      <c r="P12">
+        <v>0.6001200864075961</v>
+      </c>
+      <c r="Q12">
+        <v>4.183247821768889</v>
+      </c>
+      <c r="R12">
+        <v>37.64923039592</v>
+      </c>
+      <c r="S12">
+        <v>0.05281560107962899</v>
+      </c>
+      <c r="T12">
+        <v>0.05281560107962901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="H11">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="I11">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="J11">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="N11">
-        <v>8.019429305673169</v>
-      </c>
-      <c r="O11">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="P11">
-        <v>0.2695773159048267</v>
-      </c>
-      <c r="Q11">
-        <v>1.577846483145627</v>
-      </c>
-      <c r="R11">
-        <v>1.577846483145627</v>
-      </c>
-      <c r="S11">
-        <v>0.02635736384389126</v>
-      </c>
-      <c r="T11">
-        <v>0.02635736384389126</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66508</v>
+      </c>
+      <c r="I13">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J13">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.156330666666667</v>
+      </c>
+      <c r="N13">
+        <v>6.468992</v>
+      </c>
+      <c r="O13">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="P13">
+        <v>0.0685792233171259</v>
+      </c>
+      <c r="Q13">
+        <v>0.4780441332622222</v>
+      </c>
+      <c r="R13">
+        <v>4.30239719936</v>
+      </c>
+      <c r="S13">
+        <v>0.006035546856547055</v>
+      </c>
+      <c r="T13">
+        <v>0.006035546856547056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.66508</v>
+      </c>
+      <c r="I14">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J14">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7389603333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.216881</v>
+      </c>
+      <c r="O14">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="P14">
+        <v>0.02350164865971288</v>
+      </c>
+      <c r="Q14">
+        <v>0.1638225794977778</v>
+      </c>
+      <c r="R14">
+        <v>1.47440321548</v>
+      </c>
+      <c r="S14">
+        <v>0.00206834220090068</v>
+      </c>
+      <c r="T14">
+        <v>0.00206834220090068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.66508</v>
+      </c>
+      <c r="I15">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J15">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6253503333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.876051</v>
+      </c>
+      <c r="O15">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="P15">
+        <v>0.0198884340069237</v>
+      </c>
+      <c r="Q15">
+        <v>0.1386359998977778</v>
+      </c>
+      <c r="R15">
+        <v>1.24772399908</v>
+      </c>
+      <c r="S15">
+        <v>0.001750349005806772</v>
+      </c>
+      <c r="T15">
+        <v>0.001750349005806772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.66508</v>
+      </c>
+      <c r="I16">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J16">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.052748666666666</v>
+      </c>
+      <c r="N16">
+        <v>27.158246</v>
+      </c>
+      <c r="O16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="P16">
+        <v>0.2879106076086415</v>
+      </c>
+      <c r="Q16">
+        <v>2.006934027742222</v>
+      </c>
+      <c r="R16">
+        <v>18.06240624968</v>
+      </c>
+      <c r="S16">
+        <v>0.02533854830468667</v>
+      </c>
+      <c r="T16">
+        <v>0.02533854830468667</v>
       </c>
     </row>
   </sheetData>
